--- a/Dossier Stage/Gestion projet Phase 0,8 option 2/Gestion de projet Projet Phaselec PHASE 0,8 option 2.xlsx
+++ b/Dossier Stage/Gestion projet Phase 0,8 option 2/Gestion de projet Projet Phaselec PHASE 0,8 option 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="recensement des tâches" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t xml:space="preserve">N°</t>
   </si>
@@ -87,7 +87,19 @@
     <t xml:space="preserve">Les données sont lisible dans Microsoft Common Data Service  </t>
   </si>
   <si>
-    <t xml:space="preserve">La table COMPTE est visualisable avec ses données dans Microsoft Common Data Service</t>
+    <t xml:space="preserve">La table COMPTE est visualisable avec ses données dans Microsoft Common Data Service et l’insertion des données est visualisable dans Batigest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de la liaison en Microsoft Common Data Service et Microsoft Sharepoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload manuel de devis dans la partie Document du formulaire COMPTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est possible d’upload les devis dans Microsoft Sharepoint associer avec le formulare COMPTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option d’upload de devis dans le formulaire COMPTE </t>
   </si>
   <si>
     <t xml:space="preserve">Test de l'application pour Desktop et Mobile</t>
@@ -524,16 +536,16 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="148.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="96.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="84.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="80.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="129.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -622,7 +634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -630,10 +642,8 @@
         <v>19</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -643,7 +653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -652,7 +662,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>24</v>
@@ -664,7 +674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -673,7 +683,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>28</v>
@@ -685,7 +695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -694,7 +704,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>32</v>
@@ -706,18 +716,35 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+    <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
@@ -4651,7 +4678,10 @@
       <c r="A993" s="7"/>
       <c r="B993" s="7"/>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="7"/>
+      <c r="B994" s="7"/>
+    </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4680,11 +4710,11 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="105.78"/>
@@ -4700,7 +4730,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" s="11" t="n">
         <v>44111</v>
@@ -4713,42 +4743,42 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="I3" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4765,9 +4795,9 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -4784,9 +4814,9 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4803,9 +4833,9 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4822,9 +4852,9 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4841,9 +4871,9 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4859,38 +4889,48 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="15" t="n">
+      <c r="A10" s="18"/>
+      <c r="B10" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="20" t="e">
-        <f aca="false">+F10/(F10+G10)</f>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="20" t="e">
+        <f aca="false">+F11/(F11+G11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="21" t="e">
-        <f aca="false">AVERAGE(H10:H10)</f>
+      <c r="I11" s="4"/>
+      <c r="J11" s="21" t="e">
+        <f aca="false">AVERAGE(H11:H11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="23"/>
@@ -4923,9 +4963,13 @@
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="K17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7841,7 +7885,9 @@
     <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K988" s="12"/>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K989" s="12"/>
+    </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
